--- a/assets/dataset/orders_data.xlsx
+++ b/assets/dataset/orders_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392363BE-D80D-4E7D-968F-DED9DE429EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDFA05B-D6BB-4FCE-A5A2-B87F8D7E3AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
